--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FF0DF-C774-4C1C-9777-CD33AD56392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEAFDB6-D40B-4256-9473-2FA08AFC7A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>ล</t>
   </si>
 </sst>
 </file>
@@ -158,18 +161,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -477,301 +480,321 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15" style="5" customWidth="1"/>
-    <col min="3" max="3" width="45" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10" style="5" customWidth="1"/>
-    <col min="5" max="19" width="3" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="19" width="3" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="E6" s="2">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEAFDB6-D40B-4256-9473-2FA08AFC7A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FBE49A-B869-42E4-B886-40D4493536B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -604,8 +604,12 @@
       <c r="F5" s="2">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -631,8 +635,12 @@
       <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -658,8 +666,12 @@
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -689,8 +701,12 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -720,8 +736,12 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -751,8 +771,12 @@
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -782,8 +806,12 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FBE49A-B869-42E4-B886-40D4493536B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3893B9-5DDF-4EAF-862B-D17620962A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -610,7 +610,9 @@
       <c r="H5" s="2">
         <v>12</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -641,7 +643,9 @@
       <c r="H6" s="2">
         <v>17</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>9</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -672,7 +676,9 @@
       <c r="H7" s="2">
         <v>4</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -707,7 +713,9 @@
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -742,7 +750,9 @@
       <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -777,7 +787,9 @@
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -812,7 +824,9 @@
       <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3893B9-5DDF-4EAF-862B-D17620962A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C324DC8-1B5F-46BA-B8CC-B34A8712A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="2025" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -175,7 +175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -480,20 +480,20 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="19" width="3" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="3"/>
+    <col min="20" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -613,7 +613,9 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -624,7 +626,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -646,7 +648,9 @@
       <c r="I6" s="2">
         <v>9</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>22</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -657,7 +661,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -679,7 +683,9 @@
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -690,7 +696,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -716,7 +722,9 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -727,7 +735,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -753,7 +761,9 @@
       <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -764,7 +774,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -790,7 +800,9 @@
       <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -801,7 +813,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -827,7 +839,9 @@
       <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C324DC8-1B5F-46BA-B8CC-B34A8712A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F671DBC2-38B7-453D-8C16-1026B3AFCA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="2025" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -175,7 +175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -480,20 +480,20 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="19" width="3" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="3"/>
+    <col min="20" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -616,7 +616,9 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -626,7 +628,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -651,7 +653,9 @@
       <c r="J6" s="2">
         <v>22</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>31</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -661,7 +665,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -686,7 +690,9 @@
       <c r="J7" s="2">
         <v>6</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>7</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -696,7 +702,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -725,7 +731,9 @@
       <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -735,7 +743,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -764,7 +772,9 @@
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -774,7 +784,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -803,7 +813,9 @@
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -813,7 +825,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -842,7 +854,9 @@
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F671DBC2-38B7-453D-8C16-1026B3AFCA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F53283-3D2B-4C6F-851A-4956F1524841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -619,7 +619,9 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -656,7 +658,9 @@
       <c r="K6" s="2">
         <v>31</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>7</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -693,7 +697,9 @@
       <c r="K7" s="2">
         <v>7</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>8</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -734,7 +740,9 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -775,7 +783,9 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -816,7 +826,9 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -857,7 +869,9 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_01_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F53283-3D2B-4C6F-851A-4956F1524841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609291BA-4114-4248-8F7A-B51D6D8C329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -622,7 +622,9 @@
       <c r="L5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -661,7 +663,9 @@
       <c r="L6" s="2">
         <v>7</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -700,7 +704,9 @@
       <c r="L7" s="2">
         <v>8</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>9</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -743,7 +749,9 @@
       <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -786,7 +794,9 @@
       <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -829,7 +839,9 @@
       <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -872,7 +884,9 @@
       <c r="L11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
